--- a/am - Copy (4).xlsx
+++ b/am - Copy (4).xlsx
@@ -16,9 +16,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>sdf</t>
+  </si>
+  <si>
+    <t>bmnn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> c,ms</t>
+  </si>
+  <si>
+    <t>cnsmc</t>
+  </si>
+  <si>
+    <t>jhsk</t>
+  </si>
+  <si>
+    <t>cnlj</t>
   </si>
 </sst>
 </file>
@@ -357,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,6 +393,31 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
